--- a/data-raw/lessman.sorghum.xlsx
+++ b/data-raw/lessman.sorghum.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4919030F-14FC-4437-8FB1-D09CCC218C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="24" windowWidth="15168" windowHeight="6456"/>
+    <workbookView xWindow="2900" yWindow="1860" windowWidth="7590" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -14,12 +20,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -61,14 +63,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -106,7 +111,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -178,7 +183,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -351,19 +356,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AM2" sqref="AM2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -509,7 +514,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>23.2</v>
       </c>
@@ -655,7 +660,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>36</v>
       </c>
@@ -801,7 +806,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>38.5</v>
       </c>
@@ -947,7 +952,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>39.700000000000003</v>
       </c>
@@ -1093,7 +1098,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>38.299999999999997</v>
       </c>
@@ -1239,7 +1244,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>33.299999999999997</v>
       </c>
@@ -1385,7 +1390,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>37.700000000000003</v>
       </c>
@@ -1531,7 +1536,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>46.6</v>
       </c>
@@ -1677,7 +1682,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>34.799999999999997</v>
       </c>
@@ -1823,7 +1828,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>45.2</v>
       </c>
@@ -1969,7 +1974,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>41.8</v>
       </c>
@@ -2115,7 +2120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>41.8</v>
       </c>
@@ -2261,7 +2266,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>24.6</v>
       </c>
@@ -2407,7 +2412,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>40.9</v>
       </c>
@@ -2553,7 +2558,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>44.1</v>
       </c>
@@ -2699,7 +2704,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>41</v>
       </c>
@@ -2845,7 +2850,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>35.700000000000003</v>
       </c>
@@ -2991,7 +2996,7 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>40</v>
       </c>
@@ -3137,7 +3142,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="20" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>32.5</v>
       </c>
@@ -3283,7 +3288,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>44.1</v>
       </c>
@@ -3429,7 +3434,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>40.1</v>
       </c>
@@ -3575,7 +3580,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>38.4</v>
       </c>
@@ -3721,7 +3726,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>39.700000000000003</v>
       </c>
@@ -3867,7 +3872,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>39.4</v>
       </c>
@@ -4013,7 +4018,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>40.1</v>
       </c>
@@ -4159,7 +4164,7 @@
         <v>40.4</v>
       </c>
     </row>
-    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>40.799999999999997</v>
       </c>
@@ -4305,7 +4310,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>38.799999999999997</v>
       </c>
@@ -4451,7 +4456,7 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="29" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>39.200000000000003</v>
       </c>
@@ -4597,7 +4602,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>37.299999999999997</v>
       </c>
@@ -4743,7 +4748,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>42.1</v>
       </c>
@@ -4889,7 +4894,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>41.8</v>
       </c>
@@ -5035,7 +5040,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>39.4</v>
       </c>
@@ -5181,7 +5186,7 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>39.5</v>
       </c>
@@ -5327,7 +5332,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>32.799999999999997</v>
       </c>
@@ -5473,7 +5478,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>46.8</v>
       </c>
@@ -5619,7 +5624,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>38.5</v>
       </c>
@@ -5765,7 +5770,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>39.299999999999997</v>
       </c>
@@ -5911,7 +5916,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>39</v>
       </c>
@@ -6057,7 +6062,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>34.5</v>
       </c>
@@ -6203,7 +6208,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>44.1</v>
       </c>
@@ -6349,7 +6354,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40.4</v>
       </c>
@@ -6495,7 +6500,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>36.700000000000003</v>
       </c>
@@ -6641,7 +6646,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>40</v>
       </c>
@@ -6787,7 +6792,7 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>41.4</v>
       </c>
@@ -6933,7 +6938,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>37.9</v>
       </c>
@@ -7079,7 +7084,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>41.5</v>
       </c>
@@ -7225,7 +7230,7 @@
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>41.1</v>
       </c>
@@ -7371,7 +7376,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>25</v>
       </c>
@@ -7517,7 +7522,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>41.6</v>
       </c>
@@ -7663,7 +7668,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>37.200000000000003</v>
       </c>
@@ -7809,7 +7814,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>26.7</v>
       </c>
@@ -7955,7 +7960,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>29.3</v>
       </c>
@@ -8101,7 +8106,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>42.8</v>
       </c>
@@ -8247,7 +8252,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>38.200000000000003</v>
       </c>
@@ -8393,7 +8398,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>45.4</v>
       </c>
@@ -8539,7 +8544,7 @@
         <v>33.700000000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>39.799999999999997</v>
       </c>
@@ -8685,7 +8690,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>41.8</v>
       </c>
@@ -8831,7 +8836,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>43.3</v>
       </c>
@@ -8977,7 +8982,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>39.4</v>
       </c>
@@ -9123,7 +9128,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>36.5</v>
       </c>
@@ -9275,12 +9280,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
